--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_22.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96679.2161033132</v>
+        <v>108192.5319438357</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728818</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>63.37099713517632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.63926978364043</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.1818335825644</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>156.2386663830953</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755638</v>
+        <v>63.57678144609342</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>23.4869295043391</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3567277916629</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>296.7607853996625</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.5134569480837</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.62825841548272</v>
+        <v>60.38235645081264</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>334.5817096732204</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1938,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>189.5968436493439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>94.63926978364066</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>269.513456948084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>190.2713935802971</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2114886365815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.1609600883622</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,19 +2555,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>275.4805812731078</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>381.6269365471932</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>223.1498336210773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2998,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>368.0745826192873</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>122.5915982230242</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017903</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>62.95369569505461</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.5134569480844</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,10 +3597,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>22.35153719005535</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,16 +3743,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228962</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>81.1220065286378</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,10 +3834,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3949,16 +3949,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017903</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.4552014283713</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,10 +3992,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>215.5278181602331</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.440065804380853</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>190.2713935802971</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799.1015098861748</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>799.1015098861748</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>799.1015098861748</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>799.1015098861748</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2633.137982800873</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.075095457302</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.306440187188</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1575.840681926108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1185.701349950297</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,37 +4413,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240417</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5382038240417</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>149.5382038240417</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>149.5382038240417</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>149.5382038240417</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>149.5382038240417</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610023</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610023</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240417</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240417</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240417</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.314837422907</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1215.352320482495</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D5" t="n">
-        <v>857.0866218757444</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E5" t="n">
-        <v>471.2983692775002</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="F5" t="n">
-        <v>471.2983692775002</v>
+        <v>783.1896006574873</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>365.2257925556742</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4610,7 +4610,7 @@
         <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487028</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>797.9969330253591</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4835,19 +4835,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2317.164380266784</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1943.698622005704</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1553.559290029893</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4945,19 +4945,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816298</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837194</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607761</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
         <v>53.94298182036445</v>
@@ -5039,13 +5039,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5069,22 +5069,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2673.424919801718</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2673.424919801718</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5227,19 +5227,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y13" t="n">
         <v>53.94298182036445</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.952954307291</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D14" t="n">
-        <v>764.6872557005402</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>764.6872557005402</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>353.7013509109326</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5279,10 +5279,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5315,13 +5315,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287636</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>685.9562484787605</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="C16" t="n">
-        <v>517.0200655508536</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="D16" t="n">
         <v>517.0200655508536</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>685.9562484787605</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="S16" t="n">
-        <v>685.9562484787605</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="T16" t="n">
-        <v>685.9562484787605</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="U16" t="n">
-        <v>685.9562484787605</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="V16" t="n">
-        <v>685.9562484787605</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="W16" t="n">
-        <v>685.9562484787605</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="X16" t="n">
-        <v>685.9562484787605</v>
+        <v>667.1367049631893</v>
       </c>
       <c r="Y16" t="n">
-        <v>685.9562484787605</v>
+        <v>667.1367049631893</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C17" t="n">
-        <v>1208.982837814967</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>802.8902095122148</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>391.9043047226073</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5528,37 +5528,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X17" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1964.5451948195</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M18" t="n">
         <v>1313.210296315296</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U19" t="n">
-        <v>536.6170209242687</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247703</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090468</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194392</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036446</v>
@@ -5750,19 +5750,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572649</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018223</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018223</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W22" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X22" t="n">
-        <v>2179.742370083245</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>1491.915471247702</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>737.1647017090463</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.942981820364</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.942981820364</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036467</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6087,22 +6087,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6111,7 +6111,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836386</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C26" t="n">
-        <v>1546.944160717209</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>439.4247359084384</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>439.4247359084384</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6263,13 +6263,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204936</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615921</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.063382757264</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>502.7251118619119</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="W28" t="n">
-        <v>502.7251118619119</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X28" t="n">
-        <v>274.7355609638946</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="29">
@@ -6446,28 +6446,28 @@
         <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6503,10 +6503,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6552,13 +6552,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755378</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>1222.509646904466</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>836.7213943062218</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>425.7354895166142</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6701,49 +6701,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2478.514423990286</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X32" t="n">
-        <v>2354.684526795312</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y32" t="n">
-        <v>1964.5451948195</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0446400632119</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D35" t="n">
-        <v>819.715945170047</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E35" t="n">
-        <v>433.9276925718028</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6938,16 +6938,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6977,10 +6977,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7035,28 +7035,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2633.559499407056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2419.271076225219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.96288889382</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.96288889382</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>2191.96288889382</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307292</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307292</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090472</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194397</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.942981820364</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287637</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311825</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2045.540398925138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>2334.71400927057</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T40" t="n">
-        <v>2334.71400927057</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U40" t="n">
-        <v>2045.540398925138</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V40" t="n">
-        <v>2045.540398925138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W40" t="n">
-        <v>2045.540398925138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>2045.540398925138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2045.540398925138</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776798</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776798</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785541</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889465</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
         <v>2544.691559791253</v>
@@ -7439,22 +7439,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781332</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,7 +7576,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
         <v>529.6040388502502</v>
@@ -7585,34 +7585,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>598.044640063212</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C44" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D44" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E44" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F44" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
         <v>2544.691559791253</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2479.444224189705</v>
       </c>
       <c r="V44" t="n">
-        <v>1993.546461473041</v>
+        <v>2148.381336846134</v>
       </c>
       <c r="W44" t="n">
-        <v>1993.546461473041</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X44" t="n">
-        <v>1993.546461473041</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y44" t="n">
-        <v>1603.407129497229</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036447</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036447</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036447</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,7 +7813,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
         <v>529.6040388502502</v>
@@ -7822,34 +7822,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750363</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
   </sheetData>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142013</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516222</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22601,16 +22601,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>187.853170373113</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>61.53161905815472</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,25 +22747,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22784,25 +22784,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6023364382306227</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>167.6841063812618</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22960,10 +22960,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,28 +22984,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23024,16 +23024,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23075,13 +23075,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>224.2802725817785</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890128</v>
+        <v>82.85718120047575</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -23309,16 +23309,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.9613908533187</v>
       </c>
       <c r="U11" t="n">
-        <v>31.86743971662639</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>28.98780970275089</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>117.0233846211325</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23555,7 +23555,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>79.72751176932934</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>134.0369335646751</v>
+        <v>86.28283552934519</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>79.20246034757463</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23795,7 +23795,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,10 +23932,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23944,16 +23944,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>96.68503059263386</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>131.0703856053965</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24178,22 +24178,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168062</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.37316471551333</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,25 +24406,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972204</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,19 +24443,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>79.2024603475752</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>32.15723347360176</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,10 +24643,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24658,16 +24658,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>28.9878097027507</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,25 +24880,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>45.70958740150769</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>247.1395024554449</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25093,10 +25093,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,7 +25129,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401874</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,25 +25354,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>83.71149628510322</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,7 +25394,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25403,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.2707130727106</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>144.8952839085725</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,22 +25591,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972193</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,22 +25631,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789882</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,22 +25673,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>135.32631382902</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801578</v>
@@ -25837,16 +25837,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401874</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>145.2786402351093</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,7 +25871,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>35.69634934805617</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801578</v>
@@ -26074,13 +26074,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>96.01048066168062</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="C2" t="n">
         <v>318067.8710173334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
         <v>318067.8710173335</v>
@@ -26323,25 +26323,25 @@
         <v>318067.8710173334</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173336</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="G2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="H2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="I2" t="n">
         <v>318067.8710173335</v>
       </c>
-      <c r="H2" t="n">
-        <v>318067.8710173335</v>
-      </c>
-      <c r="I2" t="n">
-        <v>318067.8710173334</v>
-      </c>
       <c r="J2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="K2" t="n">
         <v>318067.8710173334</v>
       </c>
       <c r="L2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="M2" t="n">
         <v>318067.8710173335</v>
@@ -26350,7 +26350,7 @@
         <v>318067.8710173335</v>
       </c>
       <c r="O2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="P2" t="n">
         <v>318067.8710173335</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="D4" t="n">
         <v>513.1084990597035</v>
@@ -26430,7 +26430,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="H4" t="n">
         <v>513.1084990597036</v>
@@ -26448,16 +26448,16 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597036</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26482,13 +26482,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340948</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26503,13 +26503,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355272.1947596803</v>
+        <v>-355272.1947596801</v>
       </c>
       <c r="C6" t="n">
-        <v>234695.6844548644</v>
+        <v>234695.6844548642</v>
       </c>
       <c r="D6" t="n">
         <v>234695.6844548643</v>
       </c>
       <c r="E6" t="n">
+        <v>268323.2844548642</v>
+      </c>
+      <c r="F6" t="n">
         <v>268323.2844548643</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>268323.2844548642</v>
+      </c>
+      <c r="H6" t="n">
+        <v>268323.2844548642</v>
+      </c>
+      <c r="I6" t="n">
         <v>268323.2844548644</v>
       </c>
-      <c r="G6" t="n">
-        <v>268323.2844548643</v>
-      </c>
-      <c r="H6" t="n">
-        <v>268323.2844548643</v>
-      </c>
-      <c r="I6" t="n">
-        <v>268323.2844548643</v>
-      </c>
       <c r="J6" t="n">
-        <v>91900.06526227125</v>
+        <v>91900.06526227124</v>
       </c>
       <c r="K6" t="n">
         <v>268323.2844548642</v>
       </c>
       <c r="L6" t="n">
+        <v>268323.2844548642</v>
+      </c>
+      <c r="M6" t="n">
         <v>268323.2844548643</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>268323.2844548644</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>268323.2844548643</v>
-      </c>
-      <c r="O6" t="n">
-        <v>268323.2844548642</v>
       </c>
       <c r="P6" t="n">
         <v>268323.2844548643</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26747,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170868</v>
       </c>
       <c r="I3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="J3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="K3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="L3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="M3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="N3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="J3" t="n">
+      <c r="O3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="L3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="M3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="N3" t="n">
-        <v>377.7436642170868</v>
-      </c>
-      <c r="O3" t="n">
-        <v>377.7436642170868</v>
-      </c>
-      <c r="P3" t="n">
-        <v>377.7436642170868</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26802,19 +26802,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26823,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31133,7 +31133,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,10 +31145,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31610,10 +31610,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391989</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034981</v>
@@ -31847,7 +31847,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
@@ -31856,10 +31856,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034981</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,19 +32066,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32230,43 +32230,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,25 +32406,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>176.4169820478008</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983123</v>
+        <v>162.4518126576416</v>
       </c>
       <c r="N21" t="n">
         <v>211.3190711736701</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32801,25 +32801,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,22 +32880,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727431</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044134</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33038,25 +33038,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
-        <v>149.897181251634</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,22 +33117,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,22 +33354,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,19 +33488,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,22 +33591,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33749,25 +33749,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,22 +33828,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33889,7 +33889,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33898,34 +33898,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,40 +33962,40 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478008</v>
+        <v>132.9984977071302</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
@@ -34004,7 +34004,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,25 +34065,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,43 +34126,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727439</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
         <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,40 +34199,40 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
@@ -34241,7 +34241,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,25 +34302,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34372,16 +34372,16 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
         <v>218.3719038954667</v>
@@ -34390,16 +34390,16 @@
         <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,40 +34436,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
@@ -34478,7 +34478,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,25 +34539,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
@@ -35504,10 +35504,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,13 +35735,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36054,10 +36054,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.223041434342</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031299</v>
@@ -36206,10 +36206,10 @@
         <v>408.7029475713858</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262939</v>
+        <v>486.0228424856232</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047525</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,13 +36446,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36683,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,13 +37394,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>325.1459203262123</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,22 +37546,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713858</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37713,10 +37713,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181314</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
         <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37950,10 +37950,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38020,16 +38020,16 @@
         <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338903</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38187,10 +38187,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
